--- a/ONCHO/Breeding Site Survey/Ghana/2022 semptember/gn_oncho_bsa_3_village_registration_202210.xlsx
+++ b/ONCHO/Breeding Site Survey/Ghana/2022 semptember/gn_oncho_bsa_3_village_registration_202210.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="145">
   <si>
     <t>type</t>
   </si>
@@ -64,7 +64,7 @@
     <t>v_recorder_id</t>
   </si>
   <si>
-    <t>Enter recorder ID   </t>
+    <t>1. Enter recorder ID   </t>
   </si>
   <si>
     <t>Enter 2-digit recorder code provided to each recorder (person doing the data entry)   </t>
@@ -85,7 +85,7 @@
     <t>v_region</t>
   </si>
   <si>
-    <t>Select Region </t>
+    <t>2. Select Region </t>
   </si>
   <si>
     <t>select_one district</t>
@@ -94,7 +94,7 @@
     <t>v_district</t>
   </si>
   <si>
-    <t>Select district   </t>
+    <t>3. Select district   </t>
   </si>
   <si>
     <t>Select the appropriate district   </t>
@@ -121,7 +121,7 @@
     <t>v_site</t>
   </si>
   <si>
-    <t>Select community name</t>
+    <t>4. Select community name</t>
   </si>
   <si>
     <t>if(selected(${v_district}, 'Other'), false(),true())</t>
@@ -133,28 +133,16 @@
     <t>v_site_other</t>
   </si>
   <si>
-    <t>Enter the site</t>
+    <t>Enter the community</t>
   </si>
   <si>
     <t>selected(${v_site}, 'Other') or selected(${v_district}, 'Other')</t>
   </si>
   <si>
-    <t>geopoint</t>
-  </si>
-  <si>
-    <t>v_gps</t>
-  </si>
-  <si>
-    <t>Enter GPS  </t>
-  </si>
-  <si>
-    <t>Collect GPS coordinates - Must be outside to get accurate reading  </t>
-  </si>
-  <si>
     <t>v_total_population</t>
   </si>
   <si>
-    <t>What is the total population of this village? </t>
+    <t>6. What is the total population of this village? </t>
   </si>
   <si>
     <t>Please obtain this information from the community MDA register or local leaders  </t>
@@ -166,7 +154,7 @@
     <t>v_has_health_center</t>
   </si>
   <si>
-    <t>Is there a health centre in this community? </t>
+    <t>7. Is there a health centre in this community? </t>
   </si>
   <si>
     <t>select_one health_center</t>
@@ -175,7 +163,7 @@
     <t>v_has_health_center_type</t>
   </si>
   <si>
-    <t>What type of Health Centre is it? </t>
+    <t>8. What type of Health Centre is it? </t>
   </si>
   <si>
     <t>selected(${v_has_health_center}, 'Yes')</t>
@@ -187,7 +175,7 @@
     <t>v_black_flies_present</t>
   </si>
   <si>
-    <t>Are black flies present in this village?</t>
+    <t>9. Are black flies present in this village?</t>
   </si>
   <si>
     <t>Show printed picture of blackfly, ask about fast flowing rivers  </t>
@@ -196,27 +184,27 @@
     <t>v_mda_carried</t>
   </si>
   <si>
-    <t>Is MDA carried out in this village? </t>
+    <t>10. Is MDA carried out in this village? </t>
   </si>
   <si>
     <t>Do people come to distribute medicine for onchocerciasis or LF, Mectizan? </t>
   </si>
   <si>
-    <t>selected(${v_black_flies_present}, 'Yes')</t>
-  </si>
-  <si>
     <t>begin group</t>
   </si>
   <si>
     <t>v_mda</t>
   </si>
   <si>
-    <t>When was the last MDA in this village? </t>
+    <t>11. When was the last MDA in this village? </t>
   </si>
   <si>
     <t>field-list</t>
   </si>
   <si>
+    <t>selected(${v_mda_carried}, 'Yes')</t>
+  </si>
+  <si>
     <t>year</t>
   </si>
   <si>
@@ -241,10 +229,16 @@
     <t>end group</t>
   </si>
   <si>
+    <t>v_mda_everyone_take_dem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12. When MDA happens, does everyone eligible take the medicine? </t>
+  </si>
+  <si>
     <t>v_notes</t>
   </si>
   <si>
-    <t>Additional Notes</t>
+    <t>13. Additional Notes</t>
   </si>
   <si>
     <t>Anything else you want to tell us?</t>
@@ -439,10 +433,10 @@
     <t>allow_choice_duplicates</t>
   </si>
   <si>
-    <t>(2022 October) - 3. Village registration</t>
-  </si>
-  <si>
-    <t>gn_oncho_bsa_3_village_registration_202210</t>
+    <t>(2022 October) - 3. Village registration V2</t>
+  </si>
+  <si>
+    <t>gn_oncho_bsa_3_village_registration_202210_v2</t>
   </si>
   <si>
     <t>English</t>
@@ -465,10 +459,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -509,10 +503,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -524,6 +519,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -532,23 +549,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -570,19 +573,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -601,47 +624,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -652,9 +647,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -681,13 +675,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,43 +693,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,13 +711,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,19 +831,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -801,61 +849,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -949,6 +943,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -964,11 +978,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -990,187 +1010,161 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1223,9 +1217,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1239,22 +1230,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1600,7 +1579,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1612,7 +1591,7 @@
     <col min="6" max="6" width="18.5555555555556" customWidth="1"/>
     <col min="7" max="7" width="29.5037037037037" customWidth="1"/>
     <col min="8" max="8" width="8.44444444444444" customWidth="1"/>
-    <col min="9" max="9" width="12.6074074074074" customWidth="1"/>
+    <col min="9" max="9" width="21.2222222222222" customWidth="1"/>
     <col min="10" max="10" width="9.71851851851852" customWidth="1"/>
     <col min="11" max="11" width="13.8888888888889" customWidth="1"/>
     <col min="12" max="12" width="28.2222222222222" customWidth="1"/>
@@ -1655,7 +1634,7 @@
       <c r="L1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="M1" s="31" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1673,10 +1652,10 @@
         <v>16</v>
       </c>
       <c r="E2" s="19"/>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="22" t="s">
         <v>18</v>
       </c>
       <c r="H2" s="19"/>
@@ -1685,8 +1664,8 @@
         <v>19</v>
       </c>
       <c r="K2" s="19"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:13">
       <c r="A3" s="18" t="s">
@@ -1700,16 +1679,16 @@
       </c>
       <c r="D3" s="20"/>
       <c r="E3" s="19"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="22"/>
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
       <c r="J3" s="19" t="s">
         <v>19</v>
       </c>
       <c r="K3" s="19"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
     </row>
     <row r="4" s="3" customFormat="1" ht="15.75" spans="1:13">
       <c r="A4" s="18" t="s">
@@ -1725,18 +1704,18 @@
         <v>26</v>
       </c>
       <c r="E4" s="19"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="22"/>
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
       <c r="J4" s="19" t="s">
         <v>19</v>
       </c>
       <c r="K4" s="19"/>
-      <c r="L4" s="33" t="s">
+      <c r="L4" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="35"/>
+      <c r="M4" s="18"/>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:13">
       <c r="A5" s="21" t="s">
@@ -1749,9 +1728,9 @@
         <v>30</v>
       </c>
       <c r="D5" s="20"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="22"/>
       <c r="H5" s="18" t="s">
         <v>31</v>
       </c>
@@ -1761,7 +1740,7 @@
       </c>
       <c r="K5" s="19"/>
       <c r="L5" s="21"/>
-      <c r="M5" s="35"/>
+      <c r="M5" s="18"/>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:13">
       <c r="A6" s="18" t="s">
@@ -1775,9 +1754,9 @@
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="19"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="33" t="s">
+      <c r="F6" s="23"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="23" t="s">
         <v>35</v>
       </c>
       <c r="I6" s="19"/>
@@ -1785,10 +1764,10 @@
         <v>19</v>
       </c>
       <c r="K6" s="19"/>
-      <c r="L6" s="35" t="s">
+      <c r="L6" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="35"/>
+      <c r="M6" s="18"/>
     </row>
     <row r="7" s="3" customFormat="1" spans="1:13">
       <c r="A7" s="21" t="s">
@@ -1801,10 +1780,10 @@
         <v>38</v>
       </c>
       <c r="D7" s="20"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="33" t="s">
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="23" t="s">
         <v>39</v>
       </c>
       <c r="I7" s="19"/>
@@ -1813,36 +1792,36 @@
       </c>
       <c r="K7" s="19"/>
       <c r="L7" s="21"/>
-      <c r="M7" s="35"/>
+      <c r="M7" s="18"/>
     </row>
     <row r="8" s="3" customFormat="1" ht="30" spans="1:13">
       <c r="A8" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="C8" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="D8" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="19"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="18"/>
       <c r="I8" s="19"/>
       <c r="J8" s="19" t="s">
         <v>19</v>
       </c>
       <c r="K8" s="19"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-    </row>
-    <row r="9" s="3" customFormat="1" ht="30" spans="1:13">
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+    </row>
+    <row r="9" s="3" customFormat="1" spans="1:13">
       <c r="A9" s="18" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>44</v>
@@ -1850,85 +1829,85 @@
       <c r="C9" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="18"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="19"/>
       <c r="I9" s="19"/>
       <c r="J9" s="19" t="s">
         <v>19</v>
       </c>
       <c r="K9" s="19"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
     </row>
     <row r="10" s="3" customFormat="1" spans="1:13">
       <c r="A10" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="C10" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="D10" s="22"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
+      <c r="I10" s="18"/>
       <c r="J10" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="19"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-    </row>
-    <row r="11" s="3" customFormat="1" spans="1:13">
-      <c r="A11" s="18" t="s">
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+    </row>
+    <row r="11" s="3" customFormat="1" ht="30" spans="1:13">
+      <c r="A11" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="23"/>
+      <c r="D11" s="22" t="s">
+        <v>53</v>
+      </c>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="18" t="s">
-        <v>53</v>
-      </c>
+      <c r="G11" s="30"/>
+      <c r="H11" s="18"/>
       <c r="I11" s="18"/>
       <c r="J11" s="19" t="s">
         <v>19</v>
       </c>
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
-      <c r="M11" s="35"/>
-    </row>
-    <row r="12" s="3" customFormat="1" ht="30" spans="1:13">
-      <c r="A12" s="24" t="s">
+      <c r="M11" s="18"/>
+    </row>
+    <row r="12" s="3" customFormat="1" ht="28.5" spans="1:13">
+      <c r="A12" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="C12" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="D12" s="22" t="s">
         <v>56</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>57</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
-      <c r="G12" s="34"/>
+      <c r="G12" s="30"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
       <c r="J12" s="19" t="s">
@@ -1936,187 +1915,185 @@
       </c>
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
-      <c r="M12" s="35"/>
-    </row>
-    <row r="13" s="3" customFormat="1" ht="28.5" spans="1:13">
-      <c r="A13" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="25" t="s">
+      <c r="M12" s="18"/>
+    </row>
+    <row r="13" s="3" customFormat="1" spans="1:13">
+      <c r="A13" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="24"/>
+      <c r="E13" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="18"/>
       <c r="F13" s="18"/>
-      <c r="G13" s="34"/>
+      <c r="G13" s="28"/>
       <c r="H13" s="18" t="s">
         <v>61</v>
       </c>
       <c r="I13" s="18"/>
-      <c r="J13" s="19" t="s">
-        <v>19</v>
-      </c>
+      <c r="J13" s="18"/>
       <c r="K13" s="18"/>
       <c r="L13" s="18"/>
-      <c r="M13" s="35"/>
+      <c r="M13" s="18"/>
     </row>
     <row r="14" s="3" customFormat="1" spans="1:13">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="C14" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="D14" s="24"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="35" t="s">
+      <c r="G14" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="35"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
     </row>
     <row r="15" s="3" customFormat="1" spans="1:13">
-      <c r="A15" s="29" t="s">
-        <v>13</v>
+      <c r="A15" s="23" t="s">
+        <v>66</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="30" t="s">
         <v>67</v>
       </c>
+      <c r="C15" s="27" t="s">
+        <v>68</v>
+      </c>
       <c r="D15" s="28"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="G15" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
       <c r="J15" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-    </row>
-    <row r="16" s="3" customFormat="1" spans="1:13">
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+    </row>
+    <row r="17" s="3" customFormat="1" ht="28.5" spans="1:13">
+      <c r="A17" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="C17" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="D17" s="22"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="I17" s="18"/>
+      <c r="J17" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="32" t="s">
+      <c r="C18" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="31" t="s">
+      <c r="D18" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="B19" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="31" t="s">
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B20" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2147,7 +2124,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -2156,295 +2133,294 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>86</v>
-      </c>
       <c r="C3" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="15"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="15"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="15"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D7" s="12"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" t="s">
         <v>89</v>
       </c>
-      <c r="B8" t="s">
-        <v>91</v>
-      </c>
       <c r="C8" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D8" s="12"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D9" s="12"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D11" s="12"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D15" s="12"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D16" s="12"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D17" s="12"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D19" s="12"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D20" s="12"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D21" s="12"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D22" s="12"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="13"/>
-      <c r="B23"/>
       <c r="C23" s="10"/>
       <c r="D23" s="12"/>
     </row>
     <row r="24" customFormat="1" spans="1:3">
       <c r="A24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B24" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="1:3">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="3:3">
@@ -2452,86 +2428,86 @@
     </row>
     <row r="27" customFormat="1" spans="1:4">
       <c r="A27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B27" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:4">
       <c r="A28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B28" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="1:4">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B29" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="1:4">
       <c r="A30" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D31" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D32" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="3:3">
@@ -2539,380 +2515,380 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B34" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E34" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" t="s">
         <v>112</v>
       </c>
-      <c r="B35" t="s">
-        <v>114</v>
-      </c>
       <c r="C35" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E35" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B36" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E36" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B37" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E37" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B38" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E38" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B39" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E39" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B40" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E40" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B41" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E41" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B42" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E42" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B43" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E43" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B44" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E44" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B45" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C45" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E45" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B46" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C46" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E46" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B47" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C47" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E47" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B48" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C48" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E48" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B49" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C49" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E49" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B50" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C50" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E50" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B51" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C51" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E51" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B52" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C52" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E52" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B53" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C53" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E53" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B54" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C54" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E54" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B55" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C55" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E55" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B56" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C56" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E56" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B57" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C57" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E57" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B58" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C58" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E58" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B59" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C59" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E59" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B60" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C60" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E60" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2928,7 +2904,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2940,27 +2916,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" t="s">
         <v>137</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" t="s">
         <v>140</v>
-      </c>
-      <c r="B2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" t="s">
-        <v>142</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -2991,19 +2967,19 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3011,16 +2987,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" t="s">
         <v>106</v>
-      </c>
-      <c r="C2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3028,16 +3004,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3045,16 +3021,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3062,16 +3038,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:4">
@@ -3079,13 +3055,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:4">
@@ -3093,13 +3069,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:4">
@@ -3107,13 +3083,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:4">
@@ -3121,13 +3097,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:4">
@@ -3135,13 +3111,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:4">
@@ -3149,13 +3125,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:4">
@@ -3163,13 +3139,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:4">
@@ -3177,13 +3153,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:4">
@@ -3191,13 +3167,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:4">
@@ -3205,13 +3181,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:4">
@@ -3219,13 +3195,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:4">
@@ -3233,13 +3209,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:4">
@@ -3247,13 +3223,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:4">
@@ -3261,13 +3237,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:4">
@@ -3275,13 +3251,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:4">
@@ -3289,13 +3265,13 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:4">
@@ -3303,13 +3279,13 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" customFormat="1" spans="1:4">
@@ -3317,13 +3293,13 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D23" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="1:4">
@@ -3331,18 +3307,18 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="4:4">
       <c r="D25" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/ONCHO/Breeding Site Survey/Ghana/2022 semptember/gn_oncho_bsa_3_village_registration_202210.xlsx
+++ b/ONCHO/Breeding Site Survey/Ghana/2022 semptember/gn_oncho_bsa_3_village_registration_202210.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="152">
   <si>
     <t>type</t>
   </si>
@@ -151,22 +151,31 @@
     <t>select_one yesno</t>
   </si>
   <si>
+    <t>v_has_health_center_exist</t>
+  </si>
+  <si>
+    <t>7. Is there a health centre in this community? </t>
+  </si>
+  <si>
+    <t>select_one health_center</t>
+  </si>
+  <si>
     <t>v_has_health_center</t>
   </si>
   <si>
-    <t>7. Is there a health centre in this community? </t>
-  </si>
-  <si>
-    <t>select_one health_center</t>
-  </si>
-  <si>
-    <t>v_has_health_center_type</t>
-  </si>
-  <si>
     <t>8. What type of Health Centre is it? </t>
   </si>
   <si>
-    <t>selected(${v_has_health_center}, 'Yes')</t>
+    <t>selected(${v_has_health_center_exist}, 'Yes')</t>
+  </si>
+  <si>
+    <t>v_has_health_center_other</t>
+  </si>
+  <si>
+    <t>Enter the Heath center Type</t>
+  </si>
+  <si>
+    <t>selected(${v_has_health_center}, 'Other')</t>
   </si>
   <si>
     <t>select_one yes_no_dont_know</t>
@@ -235,6 +244,18 @@
     <t xml:space="preserve">12. When MDA happens, does everyone eligible take the medicine? </t>
   </si>
   <si>
+    <t>geopoint</t>
+  </si>
+  <si>
+    <t>v_gps</t>
+  </si>
+  <si>
+    <t>5. Enter GPS  </t>
+  </si>
+  <si>
+    <t>Collect GPS coordinates - Must be outside to get accurate reading  </t>
+  </si>
+  <si>
     <t>v_notes</t>
   </si>
   <si>
@@ -433,10 +454,10 @@
     <t>allow_choice_duplicates</t>
   </si>
   <si>
-    <t>(2022 October) - 3. Village registration V2</t>
-  </si>
-  <si>
-    <t>gn_oncho_bsa_3_village_registration_202210_v2</t>
+    <t>(2022 October) - 3. Village registration V3</t>
+  </si>
+  <si>
+    <t>gn_oncho_bsa_3_village_registration_202210_v3</t>
   </si>
   <si>
     <t>English</t>
@@ -459,10 +480,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -503,41 +524,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -549,7 +547,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -557,9 +585,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -581,14 +609,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -596,7 +617,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -610,30 +646,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -647,8 +667,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -669,13 +690,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,7 +714,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,25 +756,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,7 +786,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,37 +828,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -789,61 +864,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -919,6 +940,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -938,57 +983,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1010,157 +1005,183 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1572,14 +1593,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1591,7 +1612,7 @@
     <col min="6" max="6" width="18.5555555555556" customWidth="1"/>
     <col min="7" max="7" width="29.5037037037037" customWidth="1"/>
     <col min="8" max="8" width="8.44444444444444" customWidth="1"/>
-    <col min="9" max="9" width="21.2222222222222" customWidth="1"/>
+    <col min="9" max="9" width="32.3333333333333" customWidth="1"/>
     <col min="10" max="10" width="9.71851851851852" customWidth="1"/>
     <col min="11" max="11" width="13.8888888888889" customWidth="1"/>
     <col min="12" max="12" width="28.2222222222222" customWidth="1"/>
@@ -1867,39 +1888,39 @@
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
     </row>
-    <row r="11" s="3" customFormat="1" ht="30" spans="1:13">
-      <c r="A11" s="23" t="s">
+    <row r="11" s="3" customFormat="1" spans="1:13">
+      <c r="A11" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="C11" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="D11" s="20"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
+      <c r="I11" s="19"/>
       <c r="J11" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="21"/>
       <c r="M11" s="18"/>
     </row>
-    <row r="12" s="3" customFormat="1" ht="28.5" spans="1:13">
+    <row r="12" s="3" customFormat="1" ht="30" spans="1:13">
       <c r="A12" s="23" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B12" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="20" t="s">
         <v>55</v>
       </c>
       <c r="D12" s="22" t="s">
@@ -1917,72 +1938,74 @@
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
     </row>
-    <row r="13" s="3" customFormat="1" spans="1:13">
-      <c r="A13" s="26" t="s">
+    <row r="13" s="3" customFormat="1" ht="28.5" spans="1:13">
+      <c r="A13" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="C13" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="D13" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="18" t="s">
-        <v>60</v>
-      </c>
+      <c r="E13" s="18"/>
       <c r="F13" s="18"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="18" t="s">
-        <v>61</v>
-      </c>
+      <c r="G13" s="30"/>
+      <c r="H13" s="18"/>
       <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
+      <c r="J13" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="K13" s="18"/>
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
     </row>
     <row r="14" s="3" customFormat="1" spans="1:13">
-      <c r="A14" s="23" t="s">
-        <v>13</v>
+      <c r="A14" s="26" t="s">
+        <v>60</v>
       </c>
       <c r="B14" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="D14" s="24"/>
+      <c r="E14" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="18"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="H14" s="18"/>
       <c r="I14" s="18"/>
-      <c r="J14" s="19" t="s">
-        <v>19</v>
-      </c>
+      <c r="J14" s="18"/>
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
     </row>
     <row r="15" s="3" customFormat="1" spans="1:13">
       <c r="A15" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="D15" s="24"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="G15" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="28"/>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
       <c r="J15" s="19" t="s">
@@ -1992,99 +2015,109 @@
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
     </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="29" t="s">
+    <row r="16" s="3" customFormat="1" spans="1:13">
+      <c r="A16" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
+      <c r="B16" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>71</v>
+      </c>
       <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
       <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-    </row>
-    <row r="17" s="3" customFormat="1" ht="28.5" spans="1:13">
-      <c r="A17" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="I17" s="18"/>
-      <c r="J17" s="19" t="s">
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="28" t="s">
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+    </row>
+    <row r="18" s="3" customFormat="1" ht="28.5" spans="1:13">
+      <c r="A18" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="C18" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="28" t="s">
+      <c r="D18" s="22"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="18"/>
+      <c r="J18" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+    </row>
+    <row r="19" s="3" customFormat="1" ht="30" spans="1:13">
+      <c r="A19" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
+      <c r="C19" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="28" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="28"/>
+        <v>79</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>81</v>
+      </c>
       <c r="E20" s="28"/>
       <c r="F20" s="28"/>
       <c r="G20" s="28"/>
@@ -2094,6 +2127,44 @@
       <c r="K20" s="28"/>
       <c r="L20" s="28"/>
       <c r="M20" s="28"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="27"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="27"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2110,7 +2181,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="$A11:$XFD22"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -2124,7 +2195,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -2133,266 +2204,266 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="8" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="15"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="15"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="15"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="13" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D7" s="12"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="13" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D8" s="12"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="13" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D9" s="12"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="13" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D11" s="12"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D15" s="12"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D16" s="12"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D17" s="12"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D19" s="12"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D20" s="12"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B21" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D21" s="12"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D22" s="12"/>
     </row>
@@ -2403,24 +2474,24 @@
     </row>
     <row r="24" customFormat="1" spans="1:3">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B24" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="1:3">
       <c r="A25" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B25" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="3:3">
@@ -2428,86 +2499,86 @@
     </row>
     <row r="27" customFormat="1" spans="1:4">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B27" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D27" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:4">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B28" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D28" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="1:4">
       <c r="A29" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B29" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D29" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="1:4">
       <c r="A30" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B30" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D30" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D31" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D32" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="3:3">
@@ -2515,380 +2586,380 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B34" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E34" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B35" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E35" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B36" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E36" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B37" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E37" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B38" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E38" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B39" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E39" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B40" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E40" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B41" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E41" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B42" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E42" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B43" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E43" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B44" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="E44" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B45" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C45" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E45" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B46" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C46" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E46" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B47" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C47" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E47" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B48" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C48" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E48" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B49" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C49" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E49" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B50" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C50" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E50" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B51" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C51" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E51" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B52" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C52" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E52" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B53" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C53" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="E53" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B54" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C54" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E54" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B55" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C55" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B56" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C56" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="E56" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B57" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C57" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E57" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B58" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C58" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E58" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B59" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C59" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E59" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B60" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C60" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E60" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2903,7 +2974,7 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2916,27 +2987,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D1" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -2967,19 +3038,19 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2987,16 +3058,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3004,16 +3075,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" t="s">
         <v>114</v>
-      </c>
-      <c r="F3" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3021,16 +3092,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" t="s">
         <v>115</v>
-      </c>
-      <c r="F4" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3038,16 +3109,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D5" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="F5" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:4">
@@ -3055,13 +3126,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D6" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:4">
@@ -3069,13 +3140,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:4">
@@ -3083,13 +3154,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:4">
@@ -3097,13 +3168,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D9" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:4">
@@ -3111,13 +3182,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D10" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:4">
@@ -3125,13 +3196,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D11" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:4">
@@ -3139,13 +3210,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C12" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D12" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:4">
@@ -3153,13 +3224,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C13" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D13" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:4">
@@ -3167,13 +3238,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D14" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:4">
@@ -3181,13 +3252,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D15" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:4">
@@ -3195,13 +3266,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D16" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:4">
@@ -3209,13 +3280,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D17" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:4">
@@ -3223,13 +3294,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D18" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:4">
@@ -3237,13 +3308,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C19" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D19" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:4">
@@ -3251,13 +3322,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C20" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D20" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:4">
@@ -3265,13 +3336,13 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C21" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D21" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:4">
@@ -3279,13 +3350,13 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C22" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D22" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" customFormat="1" spans="1:4">
@@ -3293,13 +3364,13 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C23" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D23" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="1:4">
@@ -3307,18 +3378,18 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C24" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D24" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="4:4">
       <c r="D25" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
